--- a/cinefilia.xlsx
+++ b/cinefilia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\git\sites\filmes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\git\filmeTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26278120-0314-4D14-8D84-7E59D7EED17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A745C32B-5E35-4E42-934D-42A18D92817B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" xr2:uid="{946EF7EE-034E-4F7F-BB1F-D7E396B82FD7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{946EF7EE-034E-4F7F-BB1F-D7E396B82FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/cinefilia.xlsx
+++ b/cinefilia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\git\filmeTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A745C32B-5E35-4E42-934D-42A18D92817B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8749E5-28DC-4F21-859C-3A07E31C7FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{946EF7EE-034E-4F7F-BB1F-D7E396B82FD7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{946EF7EE-034E-4F7F-BB1F-D7E396B82FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>nome</t>
   </si>
@@ -47,49 +47,61 @@
     <t>genre</t>
   </si>
   <si>
-    <t>O expresso do amanhã</t>
-  </si>
-  <si>
-    <t>Excelente, cheio de ação!</t>
-  </si>
-  <si>
     <t>Comentário</t>
   </si>
   <si>
-    <t>As cronicas de uma viagem</t>
-  </si>
-  <si>
-    <t>Aventura fascinante, com belas paisagens.</t>
-  </si>
-  <si>
-    <t>Aventura, Comboio</t>
-  </si>
-  <si>
-    <t>Aventura, Viagem</t>
-  </si>
-  <si>
-    <t>O enigma das sombras</t>
-  </si>
-  <si>
-    <t>Suspense intrigante do começo ao fim.</t>
-  </si>
-  <si>
-    <t>Dark, Thriller</t>
-  </si>
-  <si>
     <t>files</t>
   </si>
   <si>
-    <t>tomorrow_express</t>
-  </si>
-  <si>
-    <t>narnia_Cronicle</t>
-  </si>
-  <si>
-    <t>enigma_Sombras</t>
-  </si>
-  <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Skin - História Proibida</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>Biografico, Crime, Drama, Romance</t>
+  </si>
+  <si>
+    <t>skin_proibida</t>
+  </si>
+  <si>
+    <t>Darling in the fraxx</t>
+  </si>
+  <si>
+    <t>Animation, Action, Drama, Romance, Sci-Fi</t>
+  </si>
+  <si>
+    <t>darling_franxx</t>
+  </si>
+  <si>
+    <t>Vidas Passadas</t>
+  </si>
+  <si>
+    <t>Drama, Romance</t>
+  </si>
+  <si>
+    <t>vidas_passadas</t>
+  </si>
+  <si>
+    <t>A Bela e o Monstro</t>
+  </si>
+  <si>
+    <t>Adventure, Family, Fantasy, Musical, Romance</t>
+  </si>
+  <si>
+    <t>bela_monstro</t>
+  </si>
+  <si>
+    <t>Cruella</t>
+  </si>
+  <si>
+    <t>Adventure, Comedy, Crime, Drama</t>
+  </si>
+  <si>
+    <t>cruella</t>
   </si>
 </sst>
 </file>
@@ -461,17 +473,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEC174D-8F53-4220-8FB7-8A386CA83EB4}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -480,13 +492,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -494,19 +506,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -514,19 +526,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -534,19 +546,59 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/cinefilia.xlsx
+++ b/cinefilia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\git\filmeTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8749E5-28DC-4F21-859C-3A07E31C7FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A686BC8A-F385-4A40-92DF-8B6AC5914B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{946EF7EE-034E-4F7F-BB1F-D7E396B82FD7}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +509,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -529,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -549,7 +549,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -569,7 +569,7 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -589,7 +589,7 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>

--- a/cinefilia.xlsx
+++ b/cinefilia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\git\filmeTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A686BC8A-F385-4A40-92DF-8B6AC5914B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E44F812-E212-42CB-884D-22EE34F6668D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{946EF7EE-034E-4F7F-BB1F-D7E396B82FD7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>nome</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>cruella</t>
+  </si>
+  <si>
+    <t>qnlkwjnsklqnskjwqnlkwjnsklqnskjwqnqnlkwjnsklqnskjwqnlkwjnsklqnskjwqnqnlkwjnsklqnskjwqnlkwjnsklqnskjwqnqnlkwjnsklqnskjwqnlkwjnsklqnskjwqn</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>

--- a/cinefilia.xlsx
+++ b/cinefilia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\git\filmeTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\newfolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E44F812-E212-42CB-884D-22EE34F6668D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769912E1-7E57-466B-8457-6438E27948D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{946EF7EE-034E-4F7F-BB1F-D7E396B82FD7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{946EF7EE-034E-4F7F-BB1F-D7E396B82FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>nome</t>
   </si>
@@ -104,7 +104,49 @@
     <t>cruella</t>
   </si>
   <si>
-    <t>qnlkwjnsklqnskjwqnlkwjnsklqnskjwqnqnlkwjnsklqnskjwqnlkwjnsklqnskjwqnqnlkwjnsklqnskjwqnlkwjnsklqnskjwqnqnlkwjnsklqnskjwqnlkwjnsklqnskjwqn</t>
+    <t>aaaaabbbbbcccccdddddeeeeefffffggggghhhhhiiiiiijjjjjkkkkkllllmmmmnnnnooooppppqqqqqqrrrrsssstttttuuuuuvvvvwwwwwyyyyxxxxzzzzzz</t>
+  </si>
+  <si>
+    <t>This kinda looks like a mordern(and worst version, time not always makes it better) Neon Genesis Evangelion, enjoyed watching it but some parts were....just weird…</t>
+  </si>
+  <si>
+    <t>Hideous</t>
+  </si>
+  <si>
+    <t>I loved this short film, I watched it at Motel X, it was funny to watch the murders and the transformations. LOVED the message of...a kinda-of anti-homophobia film, liked to see it as a slight horror short film.</t>
+  </si>
+  <si>
+    <t>Música, Vanguarda, Terror, Drama, LGBTQ+</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>filme</t>
+  </si>
+  <si>
+    <t>anime</t>
+  </si>
+  <si>
+    <t>curta</t>
+  </si>
+  <si>
+    <t>hideous</t>
+  </si>
+  <si>
+    <t>The blood of the dinossaurs</t>
+  </si>
+  <si>
+    <t>This was probably my favorite thing i watched on Motel X, it was really funny and disturbing, loved it. WHEN HE STARTED SUCKING, OMG, COULDN'T STOP LAUGHING.</t>
+  </si>
+  <si>
+    <t>Comédia, Terror, Ficção Científica</t>
+  </si>
+  <si>
+    <t>blood_dinossaurs</t>
+  </si>
+  <si>
+    <t>curtas</t>
   </si>
 </sst>
 </file>
@@ -476,15 +518,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEC174D-8F53-4220-8FB7-8A386CA83EB4}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -503,8 +545,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -523,8 +568,11 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -535,7 +583,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -543,8 +591,11 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -563,8 +614,11 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -583,8 +637,11 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -602,6 +659,55 @@
       </c>
       <c r="F6" t="s">
         <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>4.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/cinefilia.xlsx
+++ b/cinefilia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\newfolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769912E1-7E57-466B-8457-6438E27948D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C479F92-22C4-47B8-8D22-BFEB873ADCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{946EF7EE-034E-4F7F-BB1F-D7E396B82FD7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>nome</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>curtas</t>
+  </si>
+  <si>
+    <t>Heathers</t>
+  </si>
+  <si>
+    <t>heathers</t>
+  </si>
+  <si>
+    <t>Romance</t>
   </si>
 </sst>
 </file>
@@ -518,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEC174D-8F53-4220-8FB7-8A386CA83EB4}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,6 +719,29 @@
         <v>36</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cinefilia.xlsx
+++ b/cinefilia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\newfolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C479F92-22C4-47B8-8D22-BFEB873ADCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520CD6B9-3C2F-463D-9E5C-B2B8FDF3238D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{946EF7EE-034E-4F7F-BB1F-D7E396B82FD7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{946EF7EE-034E-4F7F-BB1F-D7E396B82FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="254">
   <si>
     <t>nome</t>
   </si>
@@ -62,18 +62,6 @@
     <t>""</t>
   </si>
   <si>
-    <t>Biografico, Crime, Drama, Romance</t>
-  </si>
-  <si>
-    <t>skin_proibida</t>
-  </si>
-  <si>
-    <t>Darling in the fraxx</t>
-  </si>
-  <si>
-    <t>Animation, Action, Drama, Romance, Sci-Fi</t>
-  </si>
-  <si>
     <t>darling_franxx</t>
   </si>
   <si>
@@ -89,18 +77,12 @@
     <t>A Bela e o Monstro</t>
   </si>
   <si>
-    <t>Adventure, Family, Fantasy, Musical, Romance</t>
-  </si>
-  <si>
     <t>bela_monstro</t>
   </si>
   <si>
     <t>Cruella</t>
   </si>
   <si>
-    <t>Adventure, Comedy, Crime, Drama</t>
-  </si>
-  <si>
     <t>cruella</t>
   </si>
   <si>
@@ -116,9 +98,6 @@
     <t>I loved this short film, I watched it at Motel X, it was funny to watch the murders and the transformations. LOVED the message of...a kinda-of anti-homophobia film, liked to see it as a slight horror short film.</t>
   </si>
   <si>
-    <t>Música, Vanguarda, Terror, Drama, LGBTQ+</t>
-  </si>
-  <si>
     <t>tipo</t>
   </si>
   <si>
@@ -134,35 +113,698 @@
     <t>hideous</t>
   </si>
   <si>
-    <t>The blood of the dinossaurs</t>
-  </si>
-  <si>
     <t>This was probably my favorite thing i watched on Motel X, it was really funny and disturbing, loved it. WHEN HE STARTED SUCKING, OMG, COULDN'T STOP LAUGHING.</t>
   </si>
   <si>
-    <t>Comédia, Terror, Ficção Científica</t>
-  </si>
-  <si>
     <t>blood_dinossaurs</t>
   </si>
   <si>
     <t>curtas</t>
   </si>
   <si>
-    <t>Heathers</t>
-  </si>
-  <si>
     <t>heathers</t>
   </si>
   <si>
-    <t>Romance</t>
+    <t>DARLING in the FRANXX</t>
+  </si>
+  <si>
+    <t>Guardiões da Galáxia</t>
+  </si>
+  <si>
+    <t>Interstellar</t>
+  </si>
+  <si>
+    <t>Soul: Uma Aventura com Alma</t>
+  </si>
+  <si>
+    <t>Alice no País das Maravilhas</t>
+  </si>
+  <si>
+    <t>Charlie e a Fábrica de Chocolate</t>
+  </si>
+  <si>
+    <t>Wonka</t>
+  </si>
+  <si>
+    <t>Barbie</t>
+  </si>
+  <si>
+    <t>Variações</t>
+  </si>
+  <si>
+    <t>O Dragão dos Desejos</t>
+  </si>
+  <si>
+    <t>The Witcher: Nightmare of the Wolf</t>
+  </si>
+  <si>
+    <t>Brave - Indomável</t>
+  </si>
+  <si>
+    <t>Monstros: A Universidade</t>
+  </si>
+  <si>
+    <t>À Procura de Dory</t>
+  </si>
+  <si>
+    <t>The Incredibles 2: Os Super-Heróis</t>
+  </si>
+  <si>
+    <t>Força Ralph</t>
+  </si>
+  <si>
+    <t>Baymax</t>
+  </si>
+  <si>
+    <t>Ralph vs Internet</t>
+  </si>
+  <si>
+    <t>Gru - O Maldisposto</t>
+  </si>
+  <si>
+    <t>Mínimos</t>
+  </si>
+  <si>
+    <t>Gru - O Maldisposto 2</t>
+  </si>
+  <si>
+    <t>Hotel Transylvania</t>
+  </si>
+  <si>
+    <t>Vaiana</t>
+  </si>
+  <si>
+    <t>A Vida Secreta dos Nossos Bichos</t>
+  </si>
+  <si>
+    <t>Zootrópolis</t>
+  </si>
+  <si>
+    <t>Cantar! 2</t>
+  </si>
+  <si>
+    <t>Cantar!</t>
+  </si>
+  <si>
+    <t>Young Sheldon</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>Avatar: O Caminho da Água</t>
+  </si>
+  <si>
+    <t>Terra Formars</t>
+  </si>
+  <si>
+    <t>The Blood of the Dinosaurs</t>
+  </si>
+  <si>
+    <t>Ikebukuro West Gate Park</t>
+  </si>
+  <si>
+    <t>Gibiate</t>
+  </si>
+  <si>
+    <t>The End of the F***ing World</t>
+  </si>
+  <si>
+    <t>One Punch Man: Wanpanman</t>
+  </si>
+  <si>
+    <t>Convite Para a Morte de Agatha Christie</t>
+  </si>
+  <si>
+    <t>O Tempo Contigo</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>Kimi no suizô o tabetai</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba</t>
+  </si>
+  <si>
+    <t>What Is in the Ocean?</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>Naruto: Shippûden</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Depp Vs. Heard</t>
+  </si>
+  <si>
+    <t>Gilmore Girls</t>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>Chama-me Pelo Teu Nome</t>
+  </si>
+  <si>
+    <t>Bridgerton</t>
+  </si>
+  <si>
+    <t>The Umbrella Academy</t>
+  </si>
+  <si>
+    <t>I Am Not Okay with This</t>
+  </si>
+  <si>
+    <t>La Casa de Papel</t>
+  </si>
+  <si>
+    <t>Sex Education</t>
+  </si>
+  <si>
+    <t>Massacre no Texas</t>
+  </si>
+  <si>
+    <t>Heartstopper</t>
+  </si>
+  <si>
+    <t>The Witcher</t>
+  </si>
+  <si>
+    <t>After Life</t>
+  </si>
+  <si>
+    <t>Peaky Blinders</t>
+  </si>
+  <si>
+    <t>365 Dias</t>
+  </si>
+  <si>
+    <t>A Vida É Bela</t>
+  </si>
+  <si>
+    <t>O Poder do Cão</t>
+  </si>
+  <si>
+    <t>A Teoria de Tudo</t>
+  </si>
+  <si>
+    <t>Behind the Curve</t>
+  </si>
+  <si>
+    <t>Sandman: Mestre dos Sonhos</t>
+  </si>
+  <si>
+    <t>Ricky Gervais: Humanity</t>
+  </si>
+  <si>
+    <t>Ricky Gervais: SuperNature</t>
+  </si>
+  <si>
+    <t>O Alienista</t>
+  </si>
+  <si>
+    <t>Starfuckers</t>
+  </si>
+  <si>
+    <t>Oppenheimer</t>
+  </si>
+  <si>
+    <t>Home: A Minha Casa</t>
+  </si>
+  <si>
+    <t>Os Vingadores de Tóquio</t>
+  </si>
+  <si>
+    <t>Yasuke</t>
+  </si>
+  <si>
+    <t>Pokémon 7 - Alma Gémea</t>
+  </si>
+  <si>
+    <t>Gravity Falls</t>
+  </si>
+  <si>
+    <t>WALL·E</t>
+  </si>
+  <si>
+    <t>Eiga Given</t>
+  </si>
+  <si>
+    <t>ID:Invaded</t>
+  </si>
+  <si>
+    <t>Kimi to Boku no Saigo no Senjou, Arui wa Sekai ga Hajimaru Seisen</t>
+  </si>
+  <si>
+    <t>Haikyû!!</t>
+  </si>
+  <si>
+    <t>Hunter x Hunter</t>
+  </si>
+  <si>
+    <t>Homem-Aranha: No Universo Aranha</t>
+  </si>
+  <si>
+    <t>Jumanji: O Nível Seguinte</t>
+  </si>
+  <si>
+    <t>Jumanji: Bem-Vindos à Selva</t>
+  </si>
+  <si>
+    <t>Um Crime no Expresso do Oriente</t>
+  </si>
+  <si>
+    <t>O Meu Espião</t>
+  </si>
+  <si>
+    <t>Drácula: A História Desconhecida</t>
+  </si>
+  <si>
+    <t>A Maldição de Bly Manor</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>It Capítulo 2</t>
+  </si>
+  <si>
+    <t>A Teoria do Big Bang</t>
+  </si>
+  <si>
+    <t>Os Sete Pecados Mortais</t>
+  </si>
+  <si>
+    <t>Zankyô no teroru</t>
+  </si>
+  <si>
+    <t>Yuukoku no Moriarty</t>
+  </si>
+  <si>
+    <t>Yakusoku no Neverland</t>
+  </si>
+  <si>
+    <t>Yahari ore no seishun rabukome wa machigatteiru.</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>Sword Art Online: The Movie - Ordinal Scale</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>Ataque dos Titãs</t>
+  </si>
+  <si>
+    <t>Seishun buta yaro wa Bunny Girl-senpai no yume wo minai</t>
+  </si>
+  <si>
+    <t>Seishun buta yaro wa yumemiru shoujo no yume wo minai</t>
+  </si>
+  <si>
+    <t>Recorder to Randoseru</t>
+  </si>
+  <si>
+    <t>Mushishi</t>
+  </si>
+  <si>
+    <t>Koe no katachi</t>
+  </si>
+  <si>
+    <t>Kimi no na wa.</t>
+  </si>
+  <si>
+    <t>Hori-san to Miyamura-kun</t>
+  </si>
+  <si>
+    <t>Given</t>
+  </si>
+  <si>
+    <t>Hagane no renkinjutsushi</t>
+  </si>
+  <si>
+    <t>Bungo Stray Dogs</t>
+  </si>
+  <si>
+    <t>My Hero Academia: Ascensão dos Heróis</t>
+  </si>
+  <si>
+    <t>My Hero Academia: 2 Heróis</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>Erased</t>
+  </si>
+  <si>
+    <t>Drama, Biografia, Crime, Romance</t>
+  </si>
+  <si>
+    <t>Animação, Ação, Ficção Científica, Romance, Drama</t>
+  </si>
+  <si>
+    <t>Musical, Fantasia, Romance, Família, Aventura</t>
+  </si>
+  <si>
+    <t>Comédia, Crime, Drama, Aventura</t>
+  </si>
+  <si>
+    <t>Ficção Científica, Ação, Aventura, Comédia</t>
+  </si>
+  <si>
+    <t>Ficção Científica, Aventura, Drama</t>
+  </si>
+  <si>
+    <t>Animação, Família, Aventura, Fantasia, Música, Comédia, Drama</t>
+  </si>
+  <si>
+    <t>Fantasia, Família, Aventura, Mistério</t>
+  </si>
+  <si>
+    <t>Musical, Aventura, Comédia, Família, Fantasia</t>
+  </si>
+  <si>
+    <t>Musical, Comédia, Aventura, Família, Fantasia</t>
+  </si>
+  <si>
+    <t>Comédia, Aventura, Fantasia</t>
+  </si>
+  <si>
+    <t>Biografia, Música, Drama, Romance</t>
+  </si>
+  <si>
+    <t>Animação, Aventura, Comédia, Família, Romance, Fantasia</t>
+  </si>
+  <si>
+    <t>Animação, Ação, Aventura, Drama, Fantasia, Mistério</t>
+  </si>
+  <si>
+    <t>Animação, Aventura, Fantasia, Família, Comédia, Drama, Mistério, Ação</t>
+  </si>
+  <si>
+    <t>Animação, Comédia, Aventura, Família, Fantasia</t>
+  </si>
+  <si>
+    <t>Animação, Ação, Aventura, Família, Ficção Científica, Comédia</t>
+  </si>
+  <si>
+    <t>Animação, Comédia, Família, Aventura, Fantasia, Ficção Científica, Desporto</t>
+  </si>
+  <si>
+    <t>Animação, Ação, Família, Ficção Científica, Aventura, Comédia, Crime</t>
+  </si>
+  <si>
+    <t>Animação, Comédia, Aventura, Família, Fantasia, Ficção Científica, Desporto</t>
+  </si>
+  <si>
+    <t>Animação, Família, Comédia, Ficção Científica, Crime, Aventura</t>
+  </si>
+  <si>
+    <t>Animação, Comédia, Família, Aventura, Ficção Científica, Crime</t>
+  </si>
+  <si>
+    <t>Animação, Comédia, Família, Ficção Científica, Aventura, Crime</t>
+  </si>
+  <si>
+    <t>Animação, Comédia, Família, Fantasia, Aventura, Terror</t>
+  </si>
+  <si>
+    <t>Animação, Musical, Aventura, Família, Comédia, Fantasia</t>
+  </si>
+  <si>
+    <t>Animação, Comédia, Família, Aventura</t>
+  </si>
+  <si>
+    <t>Animação, Crime, Ação, Mistério, Aventura, Família, Comédia</t>
+  </si>
+  <si>
+    <t>Animação, Musical, Comédia, Família, Aventura</t>
+  </si>
+  <si>
+    <t>Animação, Musical, Comédia, Família</t>
+  </si>
+  <si>
+    <t>Comédia</t>
+  </si>
+  <si>
+    <t>Ficção Científica, Ação, Aventura, Fantasia</t>
+  </si>
+  <si>
+    <t>Ação, Aventura, Ficção Científica, Fantasia</t>
+  </si>
+  <si>
+    <t>Animação, Ação, Terror, Ficção Científica</t>
+  </si>
+  <si>
+    <t>Curto, Comédia</t>
+  </si>
+  <si>
+    <t>Animação, Drama, Mistério, Romance</t>
+  </si>
+  <si>
+    <t>Animação, Ação, Fantasia, Aventura</t>
+  </si>
+  <si>
+    <t>Comédia, Drama, Aventura, Romance, Crime, Suspense</t>
+  </si>
+  <si>
+    <t>Animação, Ação, Comédia, Ficção Científica, Fantasia, Família</t>
+  </si>
+  <si>
+    <t>Mistério, Drama, Suspense, Crime</t>
+  </si>
+  <si>
+    <t>Animação, Fantasia, Romance, Drama</t>
+  </si>
+  <si>
+    <t>Drama, Terror, Suspense, Ficção Científica, Mistério, Fantasia</t>
+  </si>
+  <si>
+    <t>Animação, Drama, Romance, Família</t>
+  </si>
+  <si>
+    <t>Animação, Ação, Fantasia, Suspense, Aventura</t>
+  </si>
+  <si>
+    <t>Curto, Ficção Científica</t>
+  </si>
+  <si>
+    <t>Animação, Ação, Aventura, Fantasia, Suspense</t>
+  </si>
+  <si>
+    <t>Animação, Ação, Aventura, Fantasia, Drama, Comédia</t>
+  </si>
+  <si>
+    <t>Animação, Ação, Comédia, Aventura, Fantasia</t>
+  </si>
+  <si>
+    <t>Documentário, Crime</t>
+  </si>
+  <si>
+    <t>Comédia, Drama</t>
+  </si>
+  <si>
+    <t>Romance, Comédia</t>
+  </si>
+  <si>
+    <t>Ação, Fantasia, Aventura, Comédia, Drama, Ficção Científica</t>
+  </si>
+  <si>
+    <t>Comédia, Ficção Científica, Drama, Fantasia</t>
+  </si>
+  <si>
+    <t>Suspense, Crime, Mistério, Ação, Drama</t>
+  </si>
+  <si>
+    <t>Drama, Comédia, Romance</t>
+  </si>
+  <si>
+    <t>Terror, Crime, Suspense</t>
+  </si>
+  <si>
+    <t>Romance, Drama</t>
+  </si>
+  <si>
+    <t>Aventura, Fantasia, Mistério, Ação, Drama</t>
+  </si>
+  <si>
+    <t>Drama, Crime</t>
+  </si>
+  <si>
+    <t>Comédia, Guerra, Romance, Drama</t>
+  </si>
+  <si>
+    <t>Drama, Western</t>
+  </si>
+  <si>
+    <t>Drama, Biografia, Romance</t>
+  </si>
+  <si>
+    <t>Documentário</t>
+  </si>
+  <si>
+    <t>Mistério, Drama, Terror, Ficção Científica, Fantasia</t>
+  </si>
+  <si>
+    <t>Drama, Mistério, Crime</t>
+  </si>
+  <si>
+    <t>Curto, Drama</t>
+  </si>
+  <si>
+    <t>Musical, Curto, Drama, Terror, Música</t>
+  </si>
+  <si>
+    <t>Biografia, Drama, Histórico</t>
+  </si>
+  <si>
+    <t>Animação, Aventura, Fantasia, Ficção Científica, Comédia, Família</t>
+  </si>
+  <si>
+    <t>Animação, Ação, Drama</t>
+  </si>
+  <si>
+    <t>Animação, Ação, Aventura, Drama, Suspense, Fantasia</t>
+  </si>
+  <si>
+    <t>Animação, Aventura, Ficção Científica, Ação, Família, Fantasia, Drama, Comédia</t>
+  </si>
+  <si>
+    <t>Animação, Comédia, Família, Aventura, Fantasia</t>
+  </si>
+  <si>
+    <t>Animação, Ficção Científica, Aventura, Família</t>
+  </si>
+  <si>
+    <t>Animação, Drama, Romance, Música</t>
+  </si>
+  <si>
+    <t>Animação, Crime, Ficção Científica, Drama, Mistério, Suspense</t>
+  </si>
+  <si>
+    <t>Animação, Ação, Fantasia, Romance, Guerra</t>
+  </si>
+  <si>
+    <t>Animação, Desporto, Comédia, Drama</t>
+  </si>
+  <si>
+    <t>Animação, Aventura, Comédia, Ação, Fantasia</t>
+  </si>
+  <si>
+    <t>Animação, Ação, Ficção Científica, Aventura, Família, Comédia, Fantasia</t>
+  </si>
+  <si>
+    <t>Ação, Aventura, Comédia, Fantasia</t>
+  </si>
+  <si>
+    <t>Aventura, Fantasia, Ação, Comédia</t>
+  </si>
+  <si>
+    <t>Drama, Mistério, Crime, Suspense</t>
+  </si>
+  <si>
+    <t>Ação, Comédia</t>
+  </si>
+  <si>
+    <t>Ação, Drama, Fantasia, Terror</t>
+  </si>
+  <si>
+    <t>Drama, Terror, Mistério, Suspense</t>
+  </si>
+  <si>
+    <t>Terror</t>
+  </si>
+  <si>
+    <t>Terror, Drama, Fantasia</t>
+  </si>
+  <si>
+    <t>Comédia, Romance</t>
+  </si>
+  <si>
+    <t>Animação, Ação, Aventura, Fantasia, Comédia</t>
+  </si>
+  <si>
+    <t>Animação, Drama, Suspense, Mistério, Crime</t>
+  </si>
+  <si>
+    <t>Animação, Mistério, Suspense, Crime</t>
+  </si>
+  <si>
+    <t>Animação, Mistério, Suspense, Ficção Científica, Aventura, Ação, Drama, Fantasia, Terror</t>
+  </si>
+  <si>
+    <t>Animação, Comédia, Romance, Drama</t>
+  </si>
+  <si>
+    <t>Animação, Ação, Drama, Fantasia, Terror, Suspense</t>
+  </si>
+  <si>
+    <t>Animação, Ação, Aventura, Fantasia, Ficção Científica</t>
+  </si>
+  <si>
+    <t>Animação, Ação, Fantasia, Ficção Científica, Suspense, Romance, Aventura</t>
+  </si>
+  <si>
+    <t>Animação, Fantasia, Terror, Aventura, Drama, Ação</t>
+  </si>
+  <si>
+    <t>Animação, Drama, Mistério, Romance, Fantasia, Suspense</t>
+  </si>
+  <si>
+    <t>Animação, Fantasia, Romance, Drama, Mistério, Suspense</t>
+  </si>
+  <si>
+    <t>Animação, Comédia</t>
+  </si>
+  <si>
+    <t>Animação, Drama, Fantasia, Terror, Mistério, Suspense</t>
+  </si>
+  <si>
+    <t>Animação, Drama</t>
+  </si>
+  <si>
+    <t>Animação, Drama, Romance, Fantasia</t>
+  </si>
+  <si>
+    <t>Animação, Comédia, Drama, Romance</t>
+  </si>
+  <si>
+    <t>Animação, Drama, Música, Romance</t>
+  </si>
+  <si>
+    <t>Animação, Comédia, Ficção Científica, Drama, Fantasia, Ação, Aventura</t>
+  </si>
+  <si>
+    <t>Animação, Ação, Comédia, Mistério, Fantasia, Crime, Suspense</t>
+  </si>
+  <si>
+    <t>Animação, Ação, Aventura, Ficção Científica</t>
+  </si>
+  <si>
+    <t>Animação, Ação, Fantasia, Ficção Científica, Aventura, Comédia</t>
+  </si>
+  <si>
+    <t>Animação, Drama, Mistério, Ficção Científica, Suspense, Fantasia, Crime</t>
+  </si>
+  <si>
+    <t>vazio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,15 +1169,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEC174D-8F53-4220-8FB7-8A386CA83EB4}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -555,10 +1197,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -566,180 +1208,2067 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="C7">
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>175</v>
+      </c>
+      <c r="F36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>177</v>
+      </c>
+      <c r="F38" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>184</v>
+      </c>
+      <c r="F45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>186</v>
+      </c>
+      <c r="F47" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>188</v>
+      </c>
+      <c r="F49" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>189</v>
+      </c>
+      <c r="F50" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <v>4.5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>190</v>
+      </c>
+      <c r="F51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>191</v>
+      </c>
+      <c r="F52" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>192</v>
+      </c>
+      <c r="F53" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>193</v>
+      </c>
+      <c r="F56" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>194</v>
+      </c>
+      <c r="F57" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>195</v>
+      </c>
+      <c r="F58" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>196</v>
+      </c>
+      <c r="F59" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>197</v>
+      </c>
+      <c r="F60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>198</v>
+      </c>
+      <c r="F61" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s">
+        <v>199</v>
+      </c>
+      <c r="F62" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>191</v>
+      </c>
+      <c r="F63" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>200</v>
+      </c>
+      <c r="F64" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>201</v>
+      </c>
+      <c r="F66" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" t="s">
+        <v>202</v>
+      </c>
+      <c r="F67" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
+        <v>203</v>
+      </c>
+      <c r="F68" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>204</v>
+      </c>
+      <c r="F69" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F70" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>172</v>
+      </c>
+      <c r="F71" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>172</v>
+      </c>
+      <c r="F72" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>206</v>
+      </c>
+      <c r="F73" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" t="s">
+        <v>207</v>
+      </c>
+      <c r="F74" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>208</v>
+      </c>
+      <c r="F75" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>209</v>
+      </c>
+      <c r="F76" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>210</v>
+      </c>
+      <c r="F77" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="s">
+        <v>211</v>
+      </c>
+      <c r="F78" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>212</v>
+      </c>
+      <c r="F79" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
+        <v>213</v>
+      </c>
+      <c r="F80" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>214</v>
+      </c>
+      <c r="F81" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>215</v>
+      </c>
+      <c r="F82" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>216</v>
+      </c>
+      <c r="F83" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" t="s">
+        <v>217</v>
+      </c>
+      <c r="F84" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="s">
+        <v>218</v>
+      </c>
+      <c r="F85" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" t="s">
+        <v>219</v>
+      </c>
+      <c r="F86" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" t="s">
+        <v>220</v>
+      </c>
+      <c r="F87" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="s">
+        <v>221</v>
+      </c>
+      <c r="F88" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" t="s">
+        <v>222</v>
+      </c>
+      <c r="F89" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" t="s">
+        <v>223</v>
+      </c>
+      <c r="F90" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="s">
+        <v>224</v>
+      </c>
+      <c r="F91" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>225</v>
+      </c>
+      <c r="F92" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93">
+        <v>7</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>226</v>
+      </c>
+      <c r="F93" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94">
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="s">
+        <v>227</v>
+      </c>
+      <c r="F94" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" t="s">
+        <v>228</v>
+      </c>
+      <c r="F95" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96">
+        <v>7</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" t="s">
+        <v>229</v>
+      </c>
+      <c r="F96" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" t="s">
+        <v>119</v>
+      </c>
+      <c r="C97">
+        <v>9</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="s">
+        <v>230</v>
+      </c>
+      <c r="F97" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" t="s">
+        <v>120</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" t="s">
+        <v>231</v>
+      </c>
+      <c r="F98" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" t="s">
+        <v>232</v>
+      </c>
+      <c r="F99" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" t="s">
+        <v>233</v>
+      </c>
+      <c r="F100" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" t="s">
+        <v>123</v>
+      </c>
+      <c r="C101">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" t="s">
+        <v>234</v>
+      </c>
+      <c r="F101" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" t="s">
+        <v>124</v>
+      </c>
+      <c r="C102">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" t="s">
+        <v>235</v>
+      </c>
+      <c r="F102" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" t="s">
+        <v>125</v>
+      </c>
+      <c r="C103">
+        <v>7</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" t="s">
+        <v>236</v>
+      </c>
+      <c r="F103" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" t="s">
+        <v>126</v>
+      </c>
+      <c r="C104">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>237</v>
+      </c>
+      <c r="F104" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C105">
+        <v>7</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" t="s">
+        <v>238</v>
+      </c>
+      <c r="F105" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" t="s">
+        <v>128</v>
+      </c>
+      <c r="C106">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" t="s">
+        <v>239</v>
+      </c>
+      <c r="F106" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" t="s">
+        <v>129</v>
+      </c>
+      <c r="C107">
+        <v>7</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>240</v>
+      </c>
+      <c r="F107" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" t="s">
+        <v>130</v>
+      </c>
+      <c r="C108">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>241</v>
+      </c>
+      <c r="F108" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" t="s">
+        <v>131</v>
+      </c>
+      <c r="C109">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" t="s">
+        <v>242</v>
+      </c>
+      <c r="F109" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" t="s">
+        <v>132</v>
+      </c>
+      <c r="C110">
+        <v>10</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" t="s">
+        <v>243</v>
+      </c>
+      <c r="F110" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" t="s">
+        <v>133</v>
+      </c>
+      <c r="C111">
+        <v>9</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>244</v>
+      </c>
+      <c r="F111" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" t="s">
+        <v>134</v>
+      </c>
+      <c r="C112">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" t="s">
+        <v>245</v>
+      </c>
+      <c r="F112" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" t="s">
+        <v>135</v>
+      </c>
+      <c r="C113">
+        <v>7</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>246</v>
+      </c>
+      <c r="F113" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" t="s">
+        <v>136</v>
+      </c>
+      <c r="C114">
+        <v>7</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
+        <v>247</v>
+      </c>
+      <c r="F114" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115">
+        <v>9</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" t="s">
+        <v>248</v>
+      </c>
+      <c r="F115" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116">
+        <v>8</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" t="s">
+        <v>249</v>
+      </c>
+      <c r="F116" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" t="s">
+        <v>139</v>
+      </c>
+      <c r="C117">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" t="s">
+        <v>250</v>
+      </c>
+      <c r="F117" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" t="s">
+        <v>140</v>
+      </c>
+      <c r="C118">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>250</v>
+      </c>
+      <c r="F118" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" t="s">
+        <v>141</v>
+      </c>
+      <c r="C119">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" t="s">
+        <v>251</v>
+      </c>
+      <c r="F119" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" t="s">
+        <v>142</v>
+      </c>
+      <c r="C120">
+        <v>9</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" t="s">
+        <v>252</v>
+      </c>
+      <c r="F120" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/cinefilia.xlsx
+++ b/cinefilia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\newfolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\git\filmeTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520CD6B9-3C2F-463D-9E5C-B2B8FDF3238D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7FBC45-F052-441C-84DA-8F015D71E4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{946EF7EE-034E-4F7F-BB1F-D7E396B82FD7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="261">
   <si>
     <t>nome</t>
   </si>
@@ -798,6 +798,27 @@
   </si>
   <si>
     <t>vazio</t>
+  </si>
+  <si>
+    <t>uknown</t>
+  </si>
+  <si>
+    <t>rating2</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
 </sst>
 </file>
@@ -1169,15 +1190,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEC174D-8F53-4220-8FB7-8A386CA83EB4}">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1199,16 +1220,19 @@
       <c r="G1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>7</v>
+      <c r="C2" t="s">
+        <v>256</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1223,7 +1247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1231,7 +1255,7 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -1246,15 +1270,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>9</v>
+      <c r="C4" t="s">
+        <v>257</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1269,7 +1293,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1277,7 +1301,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -1292,7 +1316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1300,7 +1324,7 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1315,7 +1339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1323,7 +1347,7 @@
         <v>30</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -1338,7 +1362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1346,7 +1370,7 @@
         <v>31</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -1361,7 +1385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1369,7 +1393,7 @@
         <v>32</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1384,12 +1408,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <f>A9 + 1</f>
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1400,13 +1428,20 @@
       <c r="F10" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <f t="shared" ref="A11:A74" si="0">A10 + 1</f>
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C11">
-        <v>9</v>
+      <c r="C11" t="s">
+        <v>257</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -1417,13 +1452,20 @@
       <c r="F11" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -1434,13 +1476,20 @@
       <c r="F12" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13">
-        <v>7</v>
+      <c r="C13" t="s">
+        <v>256</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -1451,13 +1500,20 @@
       <c r="F13" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="C14">
-        <v>5</v>
+      <c r="C14" t="s">
+        <v>258</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -1468,13 +1524,20 @@
       <c r="F14" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="C15">
-        <v>7</v>
+      <c r="C15" t="s">
+        <v>256</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -1485,13 +1548,20 @@
       <c r="F15" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
         <v>39</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -1502,13 +1572,20 @@
       <c r="F16" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="G16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="B17" t="s">
         <v>40</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -1519,13 +1596,20 @@
       <c r="F17" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="G17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="C18">
-        <v>7</v>
+      <c r="C18" t="s">
+        <v>256</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -1536,13 +1620,20 @@
       <c r="F18" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="G18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="C19">
-        <v>7</v>
+      <c r="C19" t="s">
+        <v>256</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -1553,13 +1644,20 @@
       <c r="F19" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="G19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="B20" t="s">
         <v>43</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -1570,13 +1668,20 @@
       <c r="F20" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="G20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="B21" t="s">
         <v>44</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -1587,13 +1692,20 @@
       <c r="F21" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="22" spans="2:6">
+      <c r="G21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -1604,13 +1716,20 @@
       <c r="F22" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="23" spans="2:6">
+      <c r="G22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
       <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="C23">
-        <v>7</v>
+      <c r="C23" t="s">
+        <v>256</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -1621,13 +1740,20 @@
       <c r="F23" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="24" spans="2:6">
+      <c r="G23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -1638,13 +1764,20 @@
       <c r="F24" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="G24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="C25">
-        <v>7</v>
+      <c r="C25" t="s">
+        <v>256</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -1655,13 +1788,20 @@
       <c r="F25" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="G25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1672,13 +1812,20 @@
       <c r="F26" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="27" spans="2:6">
+      <c r="G26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="B27" t="s">
         <v>50</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1689,13 +1836,20 @@
       <c r="F27" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="28" spans="2:6">
+      <c r="G27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
       <c r="B28" t="s">
         <v>51</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -1706,13 +1860,20 @@
       <c r="F28" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="29" spans="2:6">
+      <c r="G28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="B29" t="s">
         <v>52</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1723,13 +1884,20 @@
       <c r="F29" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="30" spans="2:6">
+      <c r="G29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
       <c r="B30" t="s">
         <v>53</v>
       </c>
-      <c r="C30">
-        <v>5</v>
+      <c r="C30" t="s">
+        <v>258</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -1740,13 +1908,20 @@
       <c r="F30" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="31" spans="2:6">
+      <c r="G30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="B31" t="s">
         <v>54</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -1757,13 +1932,20 @@
       <c r="F31" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="32" spans="2:6">
+      <c r="G31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="B32" t="s">
         <v>55</v>
       </c>
-      <c r="C32">
-        <v>5</v>
+      <c r="C32" t="s">
+        <v>258</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1774,13 +1956,20 @@
       <c r="F32" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="33" spans="2:6">
+      <c r="G32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="B33" t="s">
         <v>56</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1791,13 +1980,20 @@
       <c r="F33" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="34" spans="2:6">
+      <c r="G33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
       <c r="B34" t="s">
         <v>57</v>
       </c>
-      <c r="C34">
-        <v>7</v>
+      <c r="C34" t="s">
+        <v>256</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -1808,13 +2004,20 @@
       <c r="F34" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="35" spans="2:6">
+      <c r="G34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
       <c r="B35" t="s">
         <v>58</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -1825,13 +2028,20 @@
       <c r="F35" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="36" spans="2:6">
+      <c r="G35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="B36" t="s">
         <v>59</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -1842,13 +2052,20 @@
       <c r="F36" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="37" spans="2:6">
+      <c r="G36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="B37" t="s">
         <v>60</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -1859,13 +2076,20 @@
       <c r="F37" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="38" spans="2:6">
+      <c r="G37" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
       <c r="B38" t="s">
         <v>61</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1876,13 +2100,20 @@
       <c r="F38" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="39" spans="2:6">
+      <c r="G38" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="B39" t="s">
         <v>62</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -1893,13 +2124,20 @@
       <c r="F39" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="40" spans="2:6">
+      <c r="G39" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
       <c r="B40" t="s">
         <v>63</v>
       </c>
-      <c r="C40">
-        <v>9</v>
+      <c r="C40" t="s">
+        <v>257</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1910,13 +2148,20 @@
       <c r="F40" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="41" spans="2:6">
+      <c r="G40" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="B41" t="s">
         <v>64</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -1927,13 +2172,20 @@
       <c r="F41" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="42" spans="2:6">
+      <c r="G41" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
       <c r="B42" t="s">
         <v>65</v>
       </c>
-      <c r="C42">
-        <v>7</v>
+      <c r="C42" t="s">
+        <v>256</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -1944,13 +2196,20 @@
       <c r="F42" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="43" spans="2:6">
+      <c r="G42" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
       <c r="B43" t="s">
         <v>66</v>
       </c>
-      <c r="C43">
-        <v>7</v>
+      <c r="C43" t="s">
+        <v>256</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -1961,13 +2220,20 @@
       <c r="F43" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="44" spans="2:6">
+      <c r="G43" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
       <c r="B44" t="s">
         <v>67</v>
       </c>
-      <c r="C44">
-        <v>7</v>
+      <c r="C44" t="s">
+        <v>256</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -1978,13 +2244,20 @@
       <c r="F44" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="45" spans="2:6">
+      <c r="G44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
       <c r="B45" t="s">
         <v>68</v>
       </c>
-      <c r="C45">
-        <v>7</v>
+      <c r="C45" t="s">
+        <v>256</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -1995,13 +2268,20 @@
       <c r="F45" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="46" spans="2:6">
+      <c r="G45" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
       <c r="B46" t="s">
         <v>69</v>
       </c>
-      <c r="C46">
-        <v>7</v>
+      <c r="C46" t="s">
+        <v>256</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -2012,13 +2292,20 @@
       <c r="F46" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="47" spans="2:6">
+      <c r="G46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
       <c r="B47" t="s">
         <v>70</v>
       </c>
-      <c r="C47">
-        <v>7</v>
+      <c r="C47" t="s">
+        <v>256</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -2029,13 +2316,20 @@
       <c r="F47" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="48" spans="2:6">
+      <c r="G47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
       <c r="B48" t="s">
         <v>71</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -2046,13 +2340,20 @@
       <c r="F48" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="49" spans="2:6">
+      <c r="G48" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
       <c r="B49" t="s">
         <v>72</v>
       </c>
-      <c r="C49">
-        <v>7</v>
+      <c r="C49" t="s">
+        <v>256</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -2063,13 +2364,20 @@
       <c r="F49" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="50" spans="2:6">
+      <c r="G49" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
       <c r="B50" t="s">
         <v>73</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -2080,13 +2388,20 @@
       <c r="F50" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="51" spans="2:6">
+      <c r="G50" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="B51" t="s">
         <v>74</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -2097,13 +2412,20 @@
       <c r="F51" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="52" spans="2:6">
+      <c r="G51" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
       <c r="B52" t="s">
         <v>75</v>
       </c>
-      <c r="C52">
-        <v>9</v>
+      <c r="C52" t="s">
+        <v>257</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -2114,13 +2436,20 @@
       <c r="F52" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="53" spans="2:6">
+      <c r="G52" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
       <c r="B53" t="s">
         <v>76</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -2131,13 +2460,20 @@
       <c r="F53" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="54" spans="2:6">
+      <c r="G53" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
       <c r="B54" t="s">
         <v>77</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -2148,13 +2484,20 @@
       <c r="F54" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="55" spans="2:6">
+      <c r="G54" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
       <c r="B55" t="s">
         <v>78</v>
       </c>
-      <c r="C55">
-        <v>7</v>
+      <c r="C55" t="s">
+        <v>256</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -2165,13 +2508,20 @@
       <c r="F55" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="56" spans="2:6">
+      <c r="G55" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
       <c r="B56" t="s">
         <v>79</v>
       </c>
       <c r="C56">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -2182,13 +2532,20 @@
       <c r="F56" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="57" spans="2:6">
+      <c r="G56" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
       <c r="B57" t="s">
         <v>80</v>
       </c>
-      <c r="C57">
-        <v>7</v>
+      <c r="C57" t="s">
+        <v>256</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -2199,13 +2556,20 @@
       <c r="F57" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="58" spans="2:6">
+      <c r="G57" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
       <c r="B58" t="s">
         <v>81</v>
       </c>
-      <c r="C58">
-        <v>5</v>
+      <c r="C58" t="s">
+        <v>258</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -2216,13 +2580,20 @@
       <c r="F58" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="59" spans="2:6">
+      <c r="G58" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
       <c r="B59" t="s">
         <v>82</v>
       </c>
-      <c r="C59">
-        <v>7</v>
+      <c r="C59" t="s">
+        <v>256</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -2233,13 +2604,20 @@
       <c r="F59" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="60" spans="2:6">
+      <c r="G59" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
       <c r="B60" t="s">
         <v>83</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -2250,13 +2628,20 @@
       <c r="F60" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="61" spans="2:6">
+      <c r="G60" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="B61" t="s">
         <v>84</v>
       </c>
-      <c r="C61">
-        <v>7</v>
+      <c r="C61" t="s">
+        <v>256</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -2267,13 +2652,20 @@
       <c r="F61" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="62" spans="2:6">
+      <c r="G61" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
       <c r="B62" t="s">
         <v>85</v>
       </c>
       <c r="C62">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -2284,13 +2676,20 @@
       <c r="F62" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="63" spans="2:6">
+      <c r="G62" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
       <c r="B63" t="s">
         <v>86</v>
       </c>
       <c r="C63">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -2301,13 +2700,20 @@
       <c r="F63" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="64" spans="2:6">
+      <c r="G63" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
       <c r="B64" t="s">
         <v>87</v>
       </c>
       <c r="C64">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -2318,13 +2724,20 @@
       <c r="F64" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="65" spans="2:6">
+      <c r="G64" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
       <c r="B65" t="s">
         <v>88</v>
       </c>
-      <c r="C65">
-        <v>1</v>
+      <c r="C65" t="s">
+        <v>259</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -2335,13 +2748,20 @@
       <c r="F65" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="66" spans="2:6">
+      <c r="G65" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
       <c r="B66" t="s">
         <v>89</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -2352,13 +2772,20 @@
       <c r="F66" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="67" spans="2:6">
+      <c r="G66" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
       <c r="B67" t="s">
         <v>90</v>
       </c>
       <c r="C67">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -2369,13 +2796,20 @@
       <c r="F67" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="68" spans="2:6">
+      <c r="G67" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
       <c r="B68" t="s">
         <v>91</v>
       </c>
       <c r="C68">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -2386,13 +2820,20 @@
       <c r="F68" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="69" spans="2:6">
+      <c r="G68" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
       <c r="B69" t="s">
         <v>92</v>
       </c>
-      <c r="C69">
-        <v>1</v>
+      <c r="C69" t="s">
+        <v>259</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -2403,13 +2844,20 @@
       <c r="F69" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="70" spans="2:6">
+      <c r="G69" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
       <c r="B70" t="s">
         <v>93</v>
       </c>
-      <c r="C70">
-        <v>5</v>
+      <c r="C70" t="s">
+        <v>258</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -2420,13 +2868,20 @@
       <c r="F70" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="71" spans="2:6">
+      <c r="G70" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
       <c r="B71" t="s">
         <v>94</v>
       </c>
       <c r="C71">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -2437,13 +2892,20 @@
       <c r="F71" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="72" spans="2:6">
+      <c r="G71" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
       <c r="B72" t="s">
         <v>95</v>
       </c>
-      <c r="C72">
-        <v>7</v>
+      <c r="C72" t="s">
+        <v>256</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -2454,13 +2916,20 @@
       <c r="F72" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="73" spans="2:6">
+      <c r="G72" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
       <c r="B73" t="s">
         <v>96</v>
       </c>
       <c r="C73">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -2471,13 +2940,20 @@
       <c r="F73" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="74" spans="2:6">
+      <c r="G73" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
       <c r="B74" t="s">
         <v>97</v>
       </c>
-      <c r="C74">
-        <v>3</v>
+      <c r="C74" t="s">
+        <v>260</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -2488,13 +2964,20 @@
       <c r="F74" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="75" spans="2:6">
+      <c r="G74" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <f t="shared" ref="A75:A120" si="1">A74 + 1</f>
+        <v>74</v>
+      </c>
       <c r="B75" t="s">
         <v>18</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -2505,13 +2988,20 @@
       <c r="F75" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="76" spans="2:6">
+      <c r="G75" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
       <c r="B76" t="s">
         <v>98</v>
       </c>
-      <c r="C76">
-        <v>9</v>
+      <c r="C76" t="s">
+        <v>257</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -2522,13 +3012,20 @@
       <c r="F76" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="77" spans="2:6">
+      <c r="G76" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
       <c r="B77" t="s">
         <v>99</v>
       </c>
       <c r="C77">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -2539,13 +3036,20 @@
       <c r="F77" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="78" spans="2:6">
+      <c r="G77" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
       <c r="B78" t="s">
         <v>100</v>
       </c>
-      <c r="C78">
-        <v>7</v>
+      <c r="C78" t="s">
+        <v>256</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -2556,13 +3060,20 @@
       <c r="F78" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="79" spans="2:6">
+      <c r="G78" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
       <c r="B79" t="s">
         <v>101</v>
       </c>
-      <c r="C79">
-        <v>5</v>
+      <c r="C79" t="s">
+        <v>258</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -2573,13 +3084,20 @@
       <c r="F79" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="80" spans="2:6">
+      <c r="G79" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
       <c r="B80" t="s">
         <v>102</v>
       </c>
-      <c r="C80">
-        <v>7</v>
+      <c r="C80" t="s">
+        <v>256</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -2590,13 +3108,20 @@
       <c r="F80" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="81" spans="2:6">
+      <c r="G80" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
       <c r="B81" t="s">
         <v>103</v>
       </c>
       <c r="C81">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
@@ -2607,13 +3132,20 @@
       <c r="F81" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="82" spans="2:6">
+      <c r="G81" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
       <c r="B82" t="s">
         <v>104</v>
       </c>
-      <c r="C82">
-        <v>9</v>
+      <c r="C82" t="s">
+        <v>257</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -2624,13 +3156,20 @@
       <c r="F82" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="83" spans="2:6">
+      <c r="G82" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
       <c r="B83" t="s">
         <v>105</v>
       </c>
       <c r="C83">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
@@ -2641,13 +3180,20 @@
       <c r="F83" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="84" spans="2:6">
+      <c r="G83" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
       <c r="B84" t="s">
         <v>106</v>
       </c>
-      <c r="C84">
-        <v>7</v>
+      <c r="C84" t="s">
+        <v>256</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -2658,13 +3204,20 @@
       <c r="F84" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="85" spans="2:6">
+      <c r="G84" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
       <c r="B85" t="s">
         <v>107</v>
       </c>
       <c r="C85">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -2675,13 +3228,20 @@
       <c r="F85" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="86" spans="2:6">
+      <c r="G85" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
       <c r="B86" t="s">
         <v>108</v>
       </c>
       <c r="C86">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -2692,13 +3252,20 @@
       <c r="F86" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="87" spans="2:6">
+      <c r="G86" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
       <c r="B87" t="s">
         <v>109</v>
       </c>
-      <c r="C87">
-        <v>9</v>
+      <c r="C87" t="s">
+        <v>257</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -2709,13 +3276,20 @@
       <c r="F87" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="88" spans="2:6">
+      <c r="G87" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
       <c r="B88" t="s">
         <v>110</v>
       </c>
       <c r="C88">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -2726,13 +3300,20 @@
       <c r="F88" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="89" spans="2:6">
+      <c r="G88" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
       <c r="B89" t="s">
         <v>111</v>
       </c>
-      <c r="C89">
-        <v>7</v>
+      <c r="C89" t="s">
+        <v>256</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -2743,13 +3324,20 @@
       <c r="F89" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="90" spans="2:6">
+      <c r="G89" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
       <c r="B90" t="s">
         <v>112</v>
       </c>
       <c r="C90">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -2760,13 +3348,20 @@
       <c r="F90" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="91" spans="2:6">
+      <c r="G90" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
       <c r="B91" t="s">
         <v>113</v>
       </c>
       <c r="C91">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -2777,13 +3372,20 @@
       <c r="F91" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="92" spans="2:6">
+      <c r="G91" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
       <c r="B92" t="s">
         <v>114</v>
       </c>
-      <c r="C92">
-        <v>5</v>
+      <c r="C92" t="s">
+        <v>258</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -2794,13 +3396,20 @@
       <c r="F92" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="93" spans="2:6">
+      <c r="G92" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
       <c r="B93" t="s">
         <v>115</v>
       </c>
-      <c r="C93">
-        <v>7</v>
+      <c r="C93" t="s">
+        <v>256</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -2811,13 +3420,20 @@
       <c r="F93" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="94" spans="2:6">
+      <c r="G93" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
       <c r="B94" t="s">
         <v>116</v>
       </c>
-      <c r="C94">
-        <v>7</v>
+      <c r="C94" t="s">
+        <v>256</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
@@ -2828,13 +3444,20 @@
       <c r="F94" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="95" spans="2:6">
+      <c r="G94" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
       <c r="B95" t="s">
         <v>117</v>
       </c>
       <c r="C95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -2845,13 +3468,20 @@
       <c r="F95" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="96" spans="2:6">
+      <c r="G95" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
       <c r="B96" t="s">
         <v>118</v>
       </c>
-      <c r="C96">
-        <v>7</v>
+      <c r="C96" t="s">
+        <v>256</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -2862,13 +3492,20 @@
       <c r="F96" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="97" spans="2:6">
+      <c r="G96" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
       <c r="B97" t="s">
         <v>119</v>
       </c>
-      <c r="C97">
-        <v>9</v>
+      <c r="C97" t="s">
+        <v>257</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -2879,13 +3516,20 @@
       <c r="F97" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="98" spans="2:6">
+      <c r="G97" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
       <c r="B98" t="s">
         <v>120</v>
       </c>
       <c r="C98">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2896,13 +3540,20 @@
       <c r="F98" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="99" spans="2:6">
+      <c r="G98" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
       <c r="B99" t="s">
         <v>121</v>
       </c>
       <c r="C99">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -2913,13 +3564,20 @@
       <c r="F99" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="100" spans="2:6">
+      <c r="G99" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
       <c r="B100" t="s">
         <v>122</v>
       </c>
-      <c r="C100">
-        <v>9</v>
+      <c r="C100" t="s">
+        <v>257</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -2930,13 +3588,20 @@
       <c r="F100" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="101" spans="2:6">
+      <c r="G100" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="B101" t="s">
         <v>123</v>
       </c>
       <c r="C101">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -2947,13 +3612,20 @@
       <c r="F101" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="102" spans="2:6">
+      <c r="G101" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
       <c r="B102" t="s">
         <v>124</v>
       </c>
       <c r="C102">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -2964,13 +3636,20 @@
       <c r="F102" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="103" spans="2:6">
+      <c r="G102" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
       <c r="B103" t="s">
         <v>125</v>
       </c>
-      <c r="C103">
-        <v>7</v>
+      <c r="C103" t="s">
+        <v>256</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2981,13 +3660,20 @@
       <c r="F103" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="104" spans="2:6">
+      <c r="G103" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
       <c r="B104" t="s">
         <v>126</v>
       </c>
-      <c r="C104">
-        <v>7</v>
+      <c r="C104" t="s">
+        <v>256</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -2998,13 +3684,20 @@
       <c r="F104" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="105" spans="2:6">
+      <c r="G104" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
       <c r="B105" t="s">
         <v>127</v>
       </c>
-      <c r="C105">
-        <v>7</v>
+      <c r="C105" t="s">
+        <v>256</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
@@ -3015,13 +3708,20 @@
       <c r="F105" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="106" spans="2:6">
+      <c r="G105" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
       <c r="B106" t="s">
         <v>128</v>
       </c>
       <c r="C106">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -3032,13 +3732,20 @@
       <c r="F106" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="107" spans="2:6">
+      <c r="G106" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
       <c r="B107" t="s">
         <v>129</v>
       </c>
-      <c r="C107">
-        <v>7</v>
+      <c r="C107" t="s">
+        <v>256</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -3049,13 +3756,20 @@
       <c r="F107" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="108" spans="2:6">
+      <c r="G107" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
       <c r="B108" t="s">
         <v>130</v>
       </c>
       <c r="C108">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -3066,13 +3780,20 @@
       <c r="F108" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="109" spans="2:6">
+      <c r="G108" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
       <c r="B109" t="s">
         <v>131</v>
       </c>
       <c r="C109">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -3083,13 +3804,20 @@
       <c r="F109" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="110" spans="2:6">
+      <c r="G109" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
       <c r="B110" t="s">
         <v>132</v>
       </c>
       <c r="C110">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
@@ -3100,13 +3828,20 @@
       <c r="F110" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="111" spans="2:6">
+      <c r="G110" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
       <c r="B111" t="s">
         <v>133</v>
       </c>
-      <c r="C111">
-        <v>9</v>
+      <c r="C111" t="s">
+        <v>257</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
@@ -3117,13 +3852,20 @@
       <c r="F111" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="112" spans="2:6">
+      <c r="G111" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
       <c r="B112" t="s">
         <v>134</v>
       </c>
-      <c r="C112">
-        <v>9</v>
+      <c r="C112" t="s">
+        <v>257</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
@@ -3134,13 +3876,20 @@
       <c r="F112" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="113" spans="2:6">
+      <c r="G112" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
       <c r="B113" t="s">
         <v>135</v>
       </c>
-      <c r="C113">
-        <v>7</v>
+      <c r="C113" t="s">
+        <v>256</v>
       </c>
       <c r="D113" t="s">
         <v>7</v>
@@ -3151,13 +3900,20 @@
       <c r="F113" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="114" spans="2:6">
+      <c r="G113" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
       <c r="B114" t="s">
         <v>136</v>
       </c>
-      <c r="C114">
-        <v>7</v>
+      <c r="C114" t="s">
+        <v>256</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
@@ -3168,13 +3924,20 @@
       <c r="F114" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="115" spans="2:6">
+      <c r="G114" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
       <c r="B115" t="s">
         <v>137</v>
       </c>
-      <c r="C115">
-        <v>9</v>
+      <c r="C115" t="s">
+        <v>257</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
@@ -3185,13 +3948,20 @@
       <c r="F115" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="116" spans="2:6">
+      <c r="G115" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
       <c r="B116" t="s">
         <v>138</v>
       </c>
       <c r="C116">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -3202,13 +3972,20 @@
       <c r="F116" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="117" spans="2:6">
+      <c r="G116" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
       <c r="B117" t="s">
         <v>139</v>
       </c>
       <c r="C117">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
@@ -3219,13 +3996,20 @@
       <c r="F117" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="118" spans="2:6">
+      <c r="G117" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
       <c r="B118" t="s">
         <v>140</v>
       </c>
       <c r="C118">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
@@ -3236,13 +4020,20 @@
       <c r="F118" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="119" spans="2:6">
+      <c r="G118" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
       <c r="B119" t="s">
         <v>141</v>
       </c>
       <c r="C119">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D119" t="s">
         <v>7</v>
@@ -3253,13 +4044,20 @@
       <c r="F119" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="120" spans="2:6">
+      <c r="G119" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
       <c r="B120" t="s">
         <v>142</v>
       </c>
-      <c r="C120">
-        <v>9</v>
+      <c r="C120" t="s">
+        <v>257</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
@@ -3269,6 +4067,9 @@
       </c>
       <c r="F120" t="s">
         <v>253</v>
+      </c>
+      <c r="G120" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/cinefilia.xlsx
+++ b/cinefilia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\git\filmeTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7FBC45-F052-441C-84DA-8F015D71E4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7E2F7B-4E7D-445A-A4DF-4C0F6F4F5111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{946EF7EE-034E-4F7F-BB1F-D7E396B82FD7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{946EF7EE-034E-4F7F-BB1F-D7E396B82FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="275">
   <si>
     <t>nome</t>
   </si>
@@ -110,21 +110,12 @@
     <t>curta</t>
   </si>
   <si>
-    <t>hideous</t>
-  </si>
-  <si>
     <t>This was probably my favorite thing i watched on Motel X, it was really funny and disturbing, loved it. WHEN HE STARTED SUCKING, OMG, COULDN'T STOP LAUGHING.</t>
   </si>
   <si>
-    <t>blood_dinossaurs</t>
-  </si>
-  <si>
     <t>curtas</t>
   </si>
   <si>
-    <t>heathers</t>
-  </si>
-  <si>
     <t>DARLING in the FRANXX</t>
   </si>
   <si>
@@ -819,13 +810,64 @@
   </si>
   <si>
     <t>1.5</t>
+  </si>
+  <si>
+    <t>guardioes_galaxia</t>
+  </si>
+  <si>
+    <t>interstellar</t>
+  </si>
+  <si>
+    <t>soul_historia</t>
+  </si>
+  <si>
+    <t>alice_pais_maravilhas</t>
+  </si>
+  <si>
+    <t>charlie_chocolate</t>
+  </si>
+  <si>
+    <t>wonka</t>
+  </si>
+  <si>
+    <t>barbie_real</t>
+  </si>
+  <si>
+    <t>variacoes</t>
+  </si>
+  <si>
+    <t>dragao_desejo</t>
+  </si>
+  <si>
+    <t>witcher_night</t>
+  </si>
+  <si>
+    <t>brave_indomavel</t>
+  </si>
+  <si>
+    <t>monstros_uni</t>
+  </si>
+  <si>
+    <t>procura_dori</t>
+  </si>
+  <si>
+    <t>incredibles_2</t>
+  </si>
+  <si>
+    <t>forca_ralph</t>
+  </si>
+  <si>
+    <t>baymax</t>
+  </si>
+  <si>
+    <t>ralph_vs_internet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1192,13 +1234,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEC174D-8F53-4220-8FB7-8A386CA83EB4}">
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1221,10 +1263,10 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1232,13 +1274,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -1247,12 +1289,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1261,7 +1303,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -1270,7 +1312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1278,7 +1320,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1293,7 +1335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1307,7 +1349,7 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -1316,7 +1358,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1330,7 +1372,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -1339,12 +1381,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1353,44 +1395,44 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1399,22 +1441,22 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>260</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>A9 + 1</f>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1423,46 +1465,46 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ref="A11:A74" si="0">A10 + 1</f>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -1471,94 +1513,94 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" t="s">
+        <v>263</v>
+      </c>
+      <c r="G12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" t="s">
+        <v>264</v>
+      </c>
+      <c r="G13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" t="s">
+        <v>265</v>
+      </c>
+      <c r="G14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
         <v>152</v>
       </c>
-      <c r="F12" t="s">
-        <v>253</v>
-      </c>
-      <c r="G12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="F15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>256</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" t="s">
-        <v>253</v>
-      </c>
-      <c r="G13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>258</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" t="s">
-        <v>253</v>
-      </c>
-      <c r="G14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>256</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" t="s">
-        <v>253</v>
-      </c>
-      <c r="G15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1567,22 +1609,22 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="G16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1591,70 +1633,70 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
+        <v>268</v>
+      </c>
+      <c r="G17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
         <v>253</v>
       </c>
-      <c r="G17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>256</v>
-      </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
+        <v>269</v>
+      </c>
+      <c r="G18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
         <v>253</v>
       </c>
-      <c r="G18" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>256</v>
-      </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F19" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="G19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -1663,22 +1705,22 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F20" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="G20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -1687,22 +1729,22 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F21" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="G21" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -1711,46 +1753,46 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F22" t="s">
+        <v>273</v>
+      </c>
+      <c r="G22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
         <v>253</v>
       </c>
-      <c r="G22" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>256</v>
-      </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F23" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="G23" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -1759,46 +1801,46 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
         <v>253</v>
       </c>
-      <c r="G24" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" t="s">
-        <v>256</v>
-      </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G25" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -1807,22 +1849,22 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F26" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G26" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -1831,22 +1873,22 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -1855,22 +1897,22 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F28" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G28" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -1879,46 +1921,46 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F29" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F30" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G30" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -1927,46 +1969,46 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F31" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G31" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F32" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -1975,46 +2017,46 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F33" t="s">
+        <v>250</v>
+      </c>
+      <c r="G33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
         <v>253</v>
       </c>
-      <c r="G33" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" t="s">
-        <v>256</v>
-      </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F34" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G34" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -2023,22 +2065,22 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F35" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G35" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2047,22 +2089,22 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F36" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G36" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -2071,22 +2113,22 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F37" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G37" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -2095,22 +2137,22 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F38" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G38" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -2119,46 +2161,46 @@
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F39" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" t="s">
-        <v>257</v>
-      </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F40" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G40" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -2167,166 +2209,166 @@
         <v>7</v>
       </c>
       <c r="E41" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" t="s">
+        <v>250</v>
+      </c>
+      <c r="G41" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>253</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" t="s">
+        <v>250</v>
+      </c>
+      <c r="G42" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>253</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" t="s">
+        <v>250</v>
+      </c>
+      <c r="G43" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
         <v>180</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F44" t="s">
+        <v>250</v>
+      </c>
+      <c r="G44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
         <v>253</v>
       </c>
-      <c r="G41" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" t="s">
-        <v>256</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
         <v>181</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F45" t="s">
+        <v>250</v>
+      </c>
+      <c r="G45" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" t="s">
         <v>253</v>
       </c>
-      <c r="G42" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" t="s">
-        <v>256</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
         <v>182</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F46" t="s">
+        <v>250</v>
+      </c>
+      <c r="G46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
         <v>253</v>
       </c>
-      <c r="G43" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" t="s">
-        <v>256</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
         <v>183</v>
       </c>
-      <c r="F44" t="s">
-        <v>253</v>
-      </c>
-      <c r="G44" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="F47" t="s">
+        <v>250</v>
+      </c>
+      <c r="G47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
         <v>68</v>
-      </c>
-      <c r="C45" t="s">
-        <v>256</v>
-      </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" t="s">
-        <v>184</v>
-      </c>
-      <c r="F45" t="s">
-        <v>253</v>
-      </c>
-      <c r="G45" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" t="s">
-        <v>256</v>
-      </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" t="s">
-        <v>185</v>
-      </c>
-      <c r="F46" t="s">
-        <v>253</v>
-      </c>
-      <c r="G46" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" t="s">
-        <v>256</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" t="s">
-        <v>186</v>
-      </c>
-      <c r="F47" t="s">
-        <v>253</v>
-      </c>
-      <c r="G47" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>71</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -2335,46 +2377,46 @@
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F48" t="s">
+        <v>250</v>
+      </c>
+      <c r="G48" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" t="s">
         <v>253</v>
       </c>
-      <c r="G48" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" t="s">
-        <v>256</v>
-      </c>
       <c r="D49" t="s">
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F49" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G49" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -2383,22 +2425,22 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F50" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G50" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -2407,46 +2449,46 @@
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F51" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G51" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" t="s">
-        <v>257</v>
-      </c>
       <c r="D52" t="s">
         <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F52" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G52" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -2455,22 +2497,22 @@
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F53" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G53" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -2482,22 +2524,22 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
+        <v>250</v>
+      </c>
+      <c r="G54" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" t="s">
         <v>253</v>
-      </c>
-      <c r="G54" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" t="s">
-        <v>256</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -2506,19 +2548,19 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G55" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -2527,94 +2569,94 @@
         <v>7</v>
       </c>
       <c r="E56" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56" t="s">
+        <v>250</v>
+      </c>
+      <c r="G56" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" t="s">
+        <v>253</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>191</v>
+      </c>
+      <c r="F57" t="s">
+        <v>250</v>
+      </c>
+      <c r="G57" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" t="s">
+        <v>255</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>192</v>
+      </c>
+      <c r="F58" t="s">
+        <v>250</v>
+      </c>
+      <c r="G58" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" t="s">
+        <v>253</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
         <v>193</v>
       </c>
-      <c r="F56" t="s">
-        <v>253</v>
-      </c>
-      <c r="G56" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="F59" t="s">
+        <v>250</v>
+      </c>
+      <c r="G59" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
         <v>80</v>
-      </c>
-      <c r="C57" t="s">
-        <v>256</v>
-      </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" t="s">
-        <v>194</v>
-      </c>
-      <c r="F57" t="s">
-        <v>253</v>
-      </c>
-      <c r="G57" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" t="s">
-        <v>258</v>
-      </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" t="s">
-        <v>195</v>
-      </c>
-      <c r="F58" t="s">
-        <v>253</v>
-      </c>
-      <c r="G58" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" t="s">
-        <v>256</v>
-      </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" t="s">
-        <v>196</v>
-      </c>
-      <c r="F59" t="s">
-        <v>253</v>
-      </c>
-      <c r="G59" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>83</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2623,46 +2665,46 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F60" t="s">
+        <v>250</v>
+      </c>
+      <c r="G60" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" t="s">
         <v>253</v>
       </c>
-      <c r="G60" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" t="s">
-        <v>256</v>
-      </c>
       <c r="D61" t="s">
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F61" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G61" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -2671,22 +2713,22 @@
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F62" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G62" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -2695,22 +2737,22 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F63" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G63" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -2719,25 +2761,25 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F64" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G64" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -2746,19 +2788,19 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G65" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -2767,22 +2809,22 @@
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F66" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G66" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -2791,22 +2833,22 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F67" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G67" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -2815,70 +2857,70 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F68" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G68" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G69" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C70" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F70" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G70" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -2887,46 +2929,46 @@
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F71" t="s">
+        <v>250</v>
+      </c>
+      <c r="G71" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" t="s">
         <v>253</v>
       </c>
-      <c r="G71" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>95</v>
-      </c>
-      <c r="C72" t="s">
-        <v>256</v>
-      </c>
       <c r="D72" t="s">
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F72" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G72" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -2935,40 +2977,40 @@
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F73" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G73" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C74" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F74" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G74" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" ref="A75:A120" si="1">A74 + 1</f>
         <v>74</v>
@@ -2983,46 +3025,46 @@
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F75" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G75" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>98</v>
-      </c>
-      <c r="C76" t="s">
-        <v>257</v>
-      </c>
       <c r="D76" t="s">
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F76" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G76" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -3031,94 +3073,94 @@
         <v>7</v>
       </c>
       <c r="E77" t="s">
+        <v>207</v>
+      </c>
+      <c r="F77" t="s">
+        <v>250</v>
+      </c>
+      <c r="G77" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" t="s">
+        <v>253</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="s">
+        <v>208</v>
+      </c>
+      <c r="F78" t="s">
+        <v>250</v>
+      </c>
+      <c r="G78" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" t="s">
+        <v>255</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>209</v>
+      </c>
+      <c r="F79" t="s">
+        <v>250</v>
+      </c>
+      <c r="G79" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" t="s">
+        <v>253</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
         <v>210</v>
       </c>
-      <c r="F77" t="s">
-        <v>253</v>
-      </c>
-      <c r="G77" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="F80" t="s">
+        <v>250</v>
+      </c>
+      <c r="G80" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
         <v>100</v>
-      </c>
-      <c r="C78" t="s">
-        <v>256</v>
-      </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" t="s">
-        <v>211</v>
-      </c>
-      <c r="F78" t="s">
-        <v>253</v>
-      </c>
-      <c r="G78" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>101</v>
-      </c>
-      <c r="C79" t="s">
-        <v>258</v>
-      </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" t="s">
-        <v>212</v>
-      </c>
-      <c r="F79" t="s">
-        <v>253</v>
-      </c>
-      <c r="G79" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>102</v>
-      </c>
-      <c r="C80" t="s">
-        <v>256</v>
-      </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" t="s">
-        <v>213</v>
-      </c>
-      <c r="F80" t="s">
-        <v>253</v>
-      </c>
-      <c r="G80" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>103</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -3127,46 +3169,46 @@
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F81" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G81" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>104</v>
-      </c>
-      <c r="C82" t="s">
-        <v>257</v>
-      </c>
       <c r="D82" t="s">
         <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F82" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G82" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -3175,46 +3217,46 @@
         <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F83" t="s">
+        <v>250</v>
+      </c>
+      <c r="G83" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" t="s">
         <v>253</v>
       </c>
-      <c r="G83" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>106</v>
-      </c>
-      <c r="C84" t="s">
-        <v>256</v>
-      </c>
       <c r="D84" t="s">
         <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F84" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G84" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -3223,22 +3265,22 @@
         <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F85" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G85" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -3247,46 +3289,46 @@
         <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F86" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G86" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>109</v>
-      </c>
-      <c r="C87" t="s">
-        <v>257</v>
-      </c>
       <c r="D87" t="s">
         <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F87" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G87" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -3295,46 +3337,46 @@
         <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F88" t="s">
+        <v>250</v>
+      </c>
+      <c r="G88" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" t="s">
         <v>253</v>
       </c>
-      <c r="G88" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>111</v>
-      </c>
-      <c r="C89" t="s">
-        <v>256</v>
-      </c>
       <c r="D89" t="s">
         <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F89" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G89" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -3343,22 +3385,22 @@
         <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F90" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G90" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -3367,94 +3409,94 @@
         <v>7</v>
       </c>
       <c r="E91" t="s">
+        <v>221</v>
+      </c>
+      <c r="F91" t="s">
+        <v>250</v>
+      </c>
+      <c r="G91" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" t="s">
+        <v>255</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>222</v>
+      </c>
+      <c r="F92" t="s">
+        <v>250</v>
+      </c>
+      <c r="G92" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" t="s">
+        <v>253</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>223</v>
+      </c>
+      <c r="F93" t="s">
+        <v>250</v>
+      </c>
+      <c r="G93" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" t="s">
+        <v>253</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="s">
         <v>224</v>
       </c>
-      <c r="F91" t="s">
-        <v>253</v>
-      </c>
-      <c r="G91" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="F94" t="s">
+        <v>250</v>
+      </c>
+      <c r="G94" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
         <v>114</v>
-      </c>
-      <c r="C92" t="s">
-        <v>258</v>
-      </c>
-      <c r="D92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" t="s">
-        <v>225</v>
-      </c>
-      <c r="F92" t="s">
-        <v>253</v>
-      </c>
-      <c r="G92" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>115</v>
-      </c>
-      <c r="C93" t="s">
-        <v>256</v>
-      </c>
-      <c r="D93" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" t="s">
-        <v>226</v>
-      </c>
-      <c r="F93" t="s">
-        <v>253</v>
-      </c>
-      <c r="G93" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C94" t="s">
-        <v>256</v>
-      </c>
-      <c r="D94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" t="s">
-        <v>227</v>
-      </c>
-      <c r="F94" t="s">
-        <v>253</v>
-      </c>
-      <c r="G94" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>117</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -3463,70 +3505,70 @@
         <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F95" t="s">
+        <v>250</v>
+      </c>
+      <c r="G95" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" t="s">
         <v>253</v>
       </c>
-      <c r="G95" t="s">
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" t="s">
+        <v>226</v>
+      </c>
+      <c r="F96" t="s">
+        <v>250</v>
+      </c>
+      <c r="G96" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>118</v>
-      </c>
-      <c r="C96" t="s">
-        <v>256</v>
-      </c>
-      <c r="D96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" t="s">
-        <v>229</v>
-      </c>
-      <c r="F96" t="s">
-        <v>253</v>
-      </c>
-      <c r="G96" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>119</v>
-      </c>
-      <c r="C97" t="s">
-        <v>257</v>
-      </c>
       <c r="D97" t="s">
         <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F97" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G97" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -3535,22 +3577,22 @@
         <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F98" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G98" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C99">
         <v>5</v>
@@ -3559,46 +3601,46 @@
         <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F99" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G99" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>119</v>
+      </c>
+      <c r="C100" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>122</v>
-      </c>
-      <c r="C100" t="s">
-        <v>257</v>
-      </c>
       <c r="D100" t="s">
         <v>7</v>
       </c>
       <c r="E100" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F100" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G100" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -3607,22 +3649,22 @@
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F101" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G101" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -3631,94 +3673,94 @@
         <v>7</v>
       </c>
       <c r="E102" t="s">
+        <v>232</v>
+      </c>
+      <c r="F102" t="s">
+        <v>250</v>
+      </c>
+      <c r="G102" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" t="s">
+        <v>253</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" t="s">
+        <v>233</v>
+      </c>
+      <c r="F103" t="s">
+        <v>250</v>
+      </c>
+      <c r="G103" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>123</v>
+      </c>
+      <c r="C104" t="s">
+        <v>253</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>234</v>
+      </c>
+      <c r="F104" t="s">
+        <v>250</v>
+      </c>
+      <c r="G104" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105" t="s">
+        <v>253</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" t="s">
         <v>235</v>
       </c>
-      <c r="F102" t="s">
-        <v>253</v>
-      </c>
-      <c r="G102" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103">
-        <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="F105" t="s">
+        <v>250</v>
+      </c>
+      <c r="G105" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
         <v>125</v>
-      </c>
-      <c r="C103" t="s">
-        <v>256</v>
-      </c>
-      <c r="D103" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" t="s">
-        <v>236</v>
-      </c>
-      <c r="F103" t="s">
-        <v>253</v>
-      </c>
-      <c r="G103" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104">
-        <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>126</v>
-      </c>
-      <c r="C104" t="s">
-        <v>256</v>
-      </c>
-      <c r="D104" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" t="s">
-        <v>237</v>
-      </c>
-      <c r="F104" t="s">
-        <v>253</v>
-      </c>
-      <c r="G104" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>127</v>
-      </c>
-      <c r="C105" t="s">
-        <v>256</v>
-      </c>
-      <c r="D105" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" t="s">
-        <v>238</v>
-      </c>
-      <c r="F105" t="s">
-        <v>253</v>
-      </c>
-      <c r="G105" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>128</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -3727,46 +3769,46 @@
         <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F106" t="s">
+        <v>250</v>
+      </c>
+      <c r="G106" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>126</v>
+      </c>
+      <c r="C107" t="s">
         <v>253</v>
       </c>
-      <c r="G106" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>129</v>
-      </c>
-      <c r="C107" t="s">
-        <v>256</v>
-      </c>
       <c r="D107" t="s">
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F107" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G107" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C108">
         <v>4</v>
@@ -3775,22 +3817,22 @@
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F108" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G108" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -3799,22 +3841,22 @@
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F109" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G109" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C110">
         <v>5</v>
@@ -3823,142 +3865,142 @@
         <v>7</v>
       </c>
       <c r="E110" t="s">
+        <v>240</v>
+      </c>
+      <c r="F110" t="s">
+        <v>250</v>
+      </c>
+      <c r="G110" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>130</v>
+      </c>
+      <c r="C111" t="s">
+        <v>254</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>241</v>
+      </c>
+      <c r="F111" t="s">
+        <v>250</v>
+      </c>
+      <c r="G111" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>131</v>
+      </c>
+      <c r="C112" t="s">
+        <v>254</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" t="s">
+        <v>242</v>
+      </c>
+      <c r="F112" t="s">
+        <v>250</v>
+      </c>
+      <c r="G112" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>132</v>
+      </c>
+      <c r="C113" t="s">
+        <v>253</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" t="s">
         <v>243</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F113" t="s">
+        <v>250</v>
+      </c>
+      <c r="G113" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>133</v>
+      </c>
+      <c r="C114" t="s">
         <v>253</v>
       </c>
-      <c r="G110" t="s">
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
+        <v>244</v>
+      </c>
+      <c r="F114" t="s">
+        <v>250</v>
+      </c>
+      <c r="G114" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>134</v>
+      </c>
+      <c r="C115" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>133</v>
-      </c>
-      <c r="C111" t="s">
-        <v>257</v>
-      </c>
-      <c r="D111" t="s">
-        <v>7</v>
-      </c>
-      <c r="E111" t="s">
-        <v>244</v>
-      </c>
-      <c r="F111" t="s">
-        <v>253</v>
-      </c>
-      <c r="G111" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112">
-        <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>134</v>
-      </c>
-      <c r="C112" t="s">
-        <v>257</v>
-      </c>
-      <c r="D112" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" t="s">
         <v>245</v>
       </c>
-      <c r="F112" t="s">
-        <v>253</v>
-      </c>
-      <c r="G112" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="F115" t="s">
+        <v>250</v>
+      </c>
+      <c r="G115" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
         <v>135</v>
-      </c>
-      <c r="C113" t="s">
-        <v>256</v>
-      </c>
-      <c r="D113" t="s">
-        <v>7</v>
-      </c>
-      <c r="E113" t="s">
-        <v>246</v>
-      </c>
-      <c r="F113" t="s">
-        <v>253</v>
-      </c>
-      <c r="G113" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114">
-        <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>136</v>
-      </c>
-      <c r="C114" t="s">
-        <v>256</v>
-      </c>
-      <c r="D114" t="s">
-        <v>7</v>
-      </c>
-      <c r="E114" t="s">
-        <v>247</v>
-      </c>
-      <c r="F114" t="s">
-        <v>253</v>
-      </c>
-      <c r="G114" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115">
-        <f t="shared" si="1"/>
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>137</v>
-      </c>
-      <c r="C115" t="s">
-        <v>257</v>
-      </c>
-      <c r="D115" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115" t="s">
-        <v>248</v>
-      </c>
-      <c r="F115" t="s">
-        <v>253</v>
-      </c>
-      <c r="G115" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116">
-        <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>138</v>
       </c>
       <c r="C116">
         <v>4</v>
@@ -3967,22 +4009,22 @@
         <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F116" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G116" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C117">
         <v>4</v>
@@ -3991,22 +4033,22 @@
         <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F117" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G117" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C118">
         <v>4</v>
@@ -4015,22 +4057,22 @@
         <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F118" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G118" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C119">
         <v>4</v>
@@ -4039,37 +4081,37 @@
         <v>7</v>
       </c>
       <c r="E119" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F119" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G119" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>139</v>
+      </c>
+      <c r="C120" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120">
-        <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>142</v>
-      </c>
-      <c r="C120" t="s">
-        <v>257</v>
-      </c>
       <c r="D120" t="s">
         <v>7</v>
       </c>
       <c r="E120" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F120" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G120" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
